--- a/parallel/schedule/schedule.xlsx
+++ b/parallel/schedule/schedule.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/cython_tutorial/parallel/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1548DF0E-682D-E542-8E5E-7BC606F7D0A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31976D-741B-3C4D-B0D6-4F8D6414CD6C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="11420" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
     <sheet name="shceduling" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>auto</t>
   </si>
@@ -41,11 +42,20 @@
   <si>
     <t>24 threads</t>
   </si>
+  <si>
+    <t># threads</t>
+  </si>
+  <si>
+    <t>guided</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -63,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,15 +81,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF26CBEB-C4F2-D940-A4C8-C59486BD058B}">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,4 +482,1868 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD61747-5641-6A4F-8443-5DC6BB716242}">
+  <dimension ref="B2:K51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>70.308999999999997</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>71.14</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>69.626999999999995</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>38.328000000000003</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C$3/C4</f>
+        <v>1.8344030473805049</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4/$B4</f>
+        <v>0.91720152369025243</v>
+      </c>
+      <c r="F4" s="4">
+        <v>36.606000000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <f>F$3/F4</f>
+        <v>1.9433972572802272</v>
+      </c>
+      <c r="H4" s="4">
+        <f>G4/$B4</f>
+        <v>0.97169862864011358</v>
+      </c>
+      <c r="I4" s="4">
+        <v>36.792000000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <f>I$3/I4</f>
+        <v>1.8924494455316372</v>
+      </c>
+      <c r="K4" s="4">
+        <f>J4/$B4</f>
+        <v>0.94622472276581859</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>25.02</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:D51" si="0">C$3/C5</f>
+        <v>2.8101119104716226</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E50" si="1">D5/$B5</f>
+        <v>0.93670397015720752</v>
+      </c>
+      <c r="F5" s="4">
+        <v>24.645</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G51" si="2">F$3/F5</f>
+        <v>2.8865895719212822</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H50" si="3">G5/$B5</f>
+        <v>0.96219652397376076</v>
+      </c>
+      <c r="I5" s="4">
+        <v>25.03</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J51" si="4">I$3/I5</f>
+        <v>2.7817419097083498</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:K50" si="5">J5/$B5</f>
+        <v>0.92724730323611659</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18.899000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7202497486639503</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.93006243716598758</v>
+      </c>
+      <c r="F6" s="4">
+        <v>19.245000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6965445570277993</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.92413613925694982</v>
+      </c>
+      <c r="I6" s="4">
+        <v>18.957000000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6728912802658646</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="5"/>
+        <v>0.91822282006646616</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15.396000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5667056378280071</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.91334112756560137</v>
+      </c>
+      <c r="F7" s="4">
+        <v>15.557</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5728610914700774</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91457221829401547</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15.289</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5540584734122573</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.91081169468245149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>13.085000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3732518150554061</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89554196917590101</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12.683</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6090830245210128</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.9348471707535021</v>
+      </c>
+      <c r="I8" s="4">
+        <v>12.997999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="4"/>
+        <v>5.3567471918756731</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89279119864594547</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>11.061</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3564777144923603</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90806824492748006</v>
+      </c>
+      <c r="F9" s="4">
+        <v>11.055999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>6.4345151953690305</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91921645648129002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10.999000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="4"/>
+        <v>6.3303027547958894</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="5"/>
+        <v>0.90432896497084136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.9139999999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0918902562033486</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88648628202541857</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.6110000000000007</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4019352824888145</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.92524191031110181</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9.9030000000000005</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="4"/>
+        <v>7.0308997273553464</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="5"/>
+        <v>0.8788624659194183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.6638999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1151675342513183</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90168528158347983</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8.5960000000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>8.2759422987436011</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91954914430484458</v>
+      </c>
+      <c r="I11" s="4">
+        <v>8.6039999999999992</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="4"/>
+        <v>8.0923988842398895</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="5"/>
+        <v>0.8991554315822099</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0417952674897126</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90417952674897129</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7.7489999999999997</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>9.1805394244418643</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91805394244418648</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7.7450000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>8.989928986442866</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89899289864428655</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.0449999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9799858055358399</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90727143686689449</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.0389999999999997</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>10.106549225742294</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91877720234020854</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7.0369999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="4"/>
+        <v>9.8944152337643878</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89949229397858066</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.4740000000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>10.860210071053444</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.9050175059211204</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.4569999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>11.017500387176709</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91812503226472575</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6.5339999999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="4"/>
+        <v>10.656106519742883</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.8880088766452402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6.1959999999999997</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>11.347482246610717</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87288324973928588</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.9640000000000004</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>11.928236083165659</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91755662178197384</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="4"/>
+        <v>11.58326401597072</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89102030892082462</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.5810000000000004</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>12.597921519440959</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89985153710292565</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>12.848112696405996</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.9177223354575712</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5.5590000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="4"/>
+        <v>12.525094441446303</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89464960296045015</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>13.59416086620263</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90627739108017535</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>13.754833720030936</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>0.916988914668729</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5.1959999999999997</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
+        <v>13.400115473441108</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89334103156274058</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>13.92533174886116</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87033323430382248</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>14.69227591904172</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91826724494010747</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="4"/>
+        <v>14.362004950495049</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89762530940594054</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>14.870769881556685</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87475116950333442</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>15.583789704271631</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91669351201597826</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4.7530000000000001</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="4"/>
+        <v>14.649063749211024</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86170963230653086</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.367</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>16.100068697046027</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89444826094700147</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>16.536494653649466</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91869414742497035</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="4"/>
+        <v>15.54174107142857</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86343005952380947</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>16.562779740871612</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87172524951955854</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>16.578886040549985</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87257294950263076</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4.2770000000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="4"/>
+        <v>16.279401449614213</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="5"/>
+        <v>0.8568106026112744</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.931</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>17.885779699821928</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89428898499109644</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.984</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="2"/>
+        <v>17.856425702811244</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.89282128514056214</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="4"/>
+        <v>17.963622291021672</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89818111455108363</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>18.367032392894462</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87462059013783156</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="2"/>
+        <v>18.785318193820967</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="3"/>
+        <v>0.89453896161052227</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3.7029999999999998</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="4"/>
+        <v>18.802862543883336</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89537440685158742</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>18.885038947085683</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.85841086123116739</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="2"/>
+        <v>19.983146067415731</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.90832482124616964</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="4"/>
+        <v>19.674201751907315</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89428189781396883</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.5569999999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>19.766376159685127</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.85940765911674466</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.452</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="2"/>
+        <v>20.608342989571263</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.89601491259005495</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="4"/>
+        <v>20.299416909620987</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88258334389656468</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>20.727889150943398</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8636620479559749</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.331</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>21.356949864905435</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88987291103772648</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="4"/>
+        <v>21.06717095310136</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="5"/>
+        <v>0.87779878971255665</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>21.113813813813813</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.84455255255255257</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="2"/>
+        <v>22.19656786271451</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88786271450858034</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="4"/>
+        <v>21.543007425742573</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86172029702970288</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>21.534150076569677</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82823654140652603</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>22.413358538122242</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86205225146624009</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="4"/>
+        <v>22.230842911877392</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="5"/>
+        <v>0.85503241968759203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>22.6292243321532</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83811941970937776</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>23.689643689643688</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87739421072754398</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="4"/>
+        <v>22.380906460945031</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="5"/>
+        <v>0.82892246151648263</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.0129999999999999</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>23.335214072353136</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83340050258404053</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.9079999999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="2"/>
+        <v>24.463548830811554</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87369817252898407</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="4"/>
+        <v>23.482967959527823</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="5"/>
+        <v>0.83867742712599369</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>24.19442532690984</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83429052851413243</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="2"/>
+        <v>25.111189551711966</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86590308799006777</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2.9020000000000001</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="4"/>
+        <v>23.992763611302546</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="5"/>
+        <v>0.82733667625181195</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>24.514993026499301</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81716643421664337</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.754</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="2"/>
+        <v>25.831517792302105</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86105059307673681</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="4"/>
+        <v>25.291318561569195</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84304395205230653</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>25.622813411078713</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82654236809931336</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>26.524981357196122</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.85564455990955235</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="4"/>
+        <v>25.980223880597013</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="5"/>
+        <v>0.83807173808377455</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>26.176098287416231</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81800307148175722</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>25.935107546481955</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8104721108275611</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="4"/>
+        <v>26.738479262672808</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="5"/>
+        <v>0.83557747695852524</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>27.083590138674882</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82071485268711764</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2.54</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="2"/>
+        <v>28.00787401574803</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="3"/>
+        <v>0.84872345502266755</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="4"/>
+        <v>26.666794331673685</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="5"/>
+        <v>0.80808467671738438</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>26.723299125807678</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78597938605316697</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="2"/>
+        <v>28.129695531830766</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82734398623031669</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="4"/>
+        <v>26.872636047857966</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79037164846641073</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>28.15738886663997</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
+        <v>0.80449682476114204</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="2"/>
+        <v>28.685483870967744</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81958525345622124</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2.444</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="4"/>
+        <v>28.488952536824875</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.81397007248071074</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2.4039999999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>29.246672212978368</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8124075614716213</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2.3740000000000001</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="2"/>
+        <v>29.966301600673965</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="3"/>
+        <v>0.83239726668538794</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="4"/>
+        <v>28.74772914946325</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79854803192953472</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>29.728964059196613</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
+        <v>0.80348551511342203</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="2"/>
+        <v>30.285227756492123</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81851966909438167</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="4"/>
+        <v>29.341340075853346</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7930091912392796</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2.387</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>29.454964390448261</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77513064185390157</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.274</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="2"/>
+        <v>31.284080914687774</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82326528722862558</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="4"/>
+        <v>30.338562091503267</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79838321293429648</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2.254</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>31.19299023957409</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
+        <v>0.79982026255318184</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="2"/>
+        <v>32.03061683926159</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82129786767337409</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2.262</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="4"/>
+        <v>30.781167108753312</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="5"/>
+        <v>0.78926069509623875</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2.2469999999999999</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>31.290164663996439</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78225411659991095</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="2"/>
+        <v>31.33920704845815</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="3"/>
+        <v>0.78348017621145372</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2.198</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="4"/>
+        <v>31.677434030937214</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79193585077343032</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>32.79337686567164</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="1"/>
+        <v>0.79983846013833271</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="2"/>
+        <v>33.908484270734036</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82703620172522041</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2.101</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="4"/>
+        <v>33.139933365064252</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="5"/>
+        <v>0.80829105768449394</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>32.460295475530934</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77286417798883178</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="2"/>
+        <v>34.41702951136913</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81945308360402691</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="4"/>
+        <v>33.539017341040456</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79854803192953461</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>33.818662818662816</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78648053066657708</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="2"/>
+        <v>34.685519258898097</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="3"/>
+        <v>0.80663998276507198</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="4"/>
+        <v>33.898247322297955</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="5"/>
+        <v>0.78833133307669667</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>44</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>32.993430314406382</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74985068896378138</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="2"/>
+        <v>35.983813859382899</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81781395134961132</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="4"/>
+        <v>34.778721278721278</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7904254836073018</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>34.097478176527645</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75772173725616987</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="2"/>
+        <v>36.48205128205128</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81071225071225073</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="4"/>
+        <v>35.523979591836735</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="5"/>
+        <v>0.78942176870748304</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="0"/>
+        <v>33.818662818662816</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="1"/>
+        <v>0.73518832214484386</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="2"/>
+        <v>36.130015236160489</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="3"/>
+        <v>0.78543511382957587</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.946</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="4"/>
+        <v>35.779547790339159</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7778162563117208</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>32.520351526364479</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="1"/>
+        <v>0.69192237290137193</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1.929</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="2"/>
+        <v>36.879212026956971</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="3"/>
+        <v>0.78466408567993551</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="4"/>
+        <v>34.588673621460508</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7359292259885214</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>29.578880942364325</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61622668629925681</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1.944</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="2"/>
+        <v>36.594650205761319</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="3"/>
+        <v>0.76238854595336081</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="4"/>
+        <v>35.853244078269825</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="5"/>
+        <v>0.74694258496395471</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/parallel/schedule/schedule.xlsx
+++ b/parallel/schedule/schedule.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/cython_tutorial/parallel/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31976D-741B-3C4D-B0D6-4F8D6414CD6C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EFA13-9FD4-F84C-BA10-CD86E0792B9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="10200" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
-    <sheet name="shceduling" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="scheduling" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>auto</t>
   </si>
@@ -35,12 +34,6 @@
   </si>
   <si>
     <t>dynamic</t>
-  </si>
-  <si>
-    <t>giuded</t>
-  </si>
-  <si>
-    <t>24 threads</t>
   </si>
   <si>
     <t># threads</t>
@@ -100,11 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -114,7 +104,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,6 +119,1857 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scheduling!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>scheduling!$B$3:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scheduling!$E$3:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="1">
+                  <c:v>0.91720152369025243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93670397015720752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93006243716598758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91334112756560137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89554196917590101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90806824492748006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88648628202541857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90168528158347983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90417952674897129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90727143686689449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9050175059211204</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87288324973928588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89985153710292565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90627739108017535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87033323430382248</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87475116950333442</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89444826094700147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87172524951955854</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89428898499109644</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87462059013783156</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85841086123116739</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85940765911674466</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8636620479559749</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84455255255255257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82823654140652603</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83811941970937776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83340050258404053</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83429052851413243</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81716643421664337</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82654236809931336</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81800307148175722</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82071485268711764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78597938605316697</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.80449682476114204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.8124075614716213</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.80348551511342203</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77513064185390157</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79982026255318184</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78225411659991095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79983846013833271</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77286417798883178</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78648053066657708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.74985068896378138</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75772173725616987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.73518832214484386</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69192237290137193</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61622668629925681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D16-B34D-873D-14164BF8174E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scheduling!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>scheduling!$B$3:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scheduling!$H$3:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="1">
+                  <c:v>0.97169862864011358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96219652397376076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92413613925694982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91457221829401547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9348471707535021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91921645648129002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92524191031110181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91954914430484458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91805394244418648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91877720234020854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91812503226472575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91755662178197384</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9177223354575712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.916988914668729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91826724494010747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91669351201597826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91869414742497035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87257294950263076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89282128514056214</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89453896161052227</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90832482124616964</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89601491259005495</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88987291103772648</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88786271450858034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86205225146624009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87739421072754398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87369817252898407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.86590308799006777</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86105059307673681</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85564455990955235</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8104721108275611</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84872345502266755</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.82734398623031669</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81958525345622124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83239726668538794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.81851966909438167</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.82326528722862558</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.82129786767337409</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78348017621145372</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.82703620172522041</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.81945308360402691</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.80663998276507198</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.81781395134961132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.81071225071225073</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78543511382957587</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.78466408567993551</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76238854595336081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D16-B34D-873D-14164BF8174E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scheduling!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>scheduling!$B$3:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scheduling!$K$3:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="1">
+                  <c:v>0.94622472276581859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92724730323611659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91822282006646616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91081169468245149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89279119864594547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90432896497084136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8788624659194183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8991554315822099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89899289864428655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89949229397858066</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8880088766452402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89102030892082462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89464960296045015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89334103156274058</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89762530940594054</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86170963230653086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86343005952380947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8568106026112744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89818111455108363</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89537440685158742</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89428189781396883</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88258334389656468</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87779878971255665</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86172029702970288</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85503241968759203</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82892246151648263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83867742712599369</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82733667625181195</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.84304395205230653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83807173808377455</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83557747695852524</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80808467671738438</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79037164846641073</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81397007248071074</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79854803192953472</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.7930091912392796</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79838321293429648</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78926069509623875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.79193585077343032</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80829105768449394</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79854803192953461</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78833133307669667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7904254836073018</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.78942176870748304</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7778162563117208</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7359292259885214</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.74694258496395471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D16-B34D-873D-14164BF8174E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1089836463"/>
+        <c:axId val="1085007951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1089836463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085007951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1085007951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089836463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9471E021-0DCD-8D44-AD80-1438980DF629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,1922 +2268,1878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF26CBEB-C4F2-D940-A4C8-C59486BD058B}">
-  <dimension ref="B3:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.4866999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.4977999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.0188999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.4116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.3607999999999998</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.411</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD61747-5641-6A4F-8443-5DC6BB716242}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>70.308999999999997</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>71.14</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
         <v>69.626999999999995</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>38.328000000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>C$3/C4</f>
         <v>1.8344030473805049</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>D4/$B4</f>
         <v>0.91720152369025243</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>36.606000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>F$3/F4</f>
         <v>1.9433972572802272</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>G4/$B4</f>
         <v>0.97169862864011358</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>36.792000000000002</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f>I$3/I4</f>
         <v>1.8924494455316372</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f>J4/$B4</f>
         <v>0.94622472276581859</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>25.02</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" ref="D5:D51" si="0">C$3/C5</f>
         <v>2.8101119104716226</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" ref="E5:E50" si="1">D5/$B5</f>
         <v>0.93670397015720752</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>24.645</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G51" si="2">F$3/F5</f>
         <v>2.8865895719212822</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" ref="H5:H50" si="3">G5/$B5</f>
         <v>0.96219652397376076</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>25.03</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" ref="J5:J51" si="4">I$3/I5</f>
         <v>2.7817419097083498</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" ref="K5:K50" si="5">J5/$B5</f>
         <v>0.92724730323611659</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>18.899000000000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>3.7202497486639503</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>0.93006243716598758</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>19.245000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>3.6965445570277993</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="3"/>
         <v>0.92413613925694982</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>18.957000000000001</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f t="shared" si="4"/>
         <v>3.6728912802658646</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="5"/>
         <v>0.91822282006646616</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>15.396000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>4.5667056378280071</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>0.91334112756560137</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>15.557</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>4.5728610914700774</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="3"/>
         <v>0.91457221829401547</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>15.289</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="4"/>
         <v>4.5540584734122573</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="5"/>
         <v>0.91081169468245149</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>13.085000000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>5.3732518150554061</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>0.89554196917590101</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>12.683</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="2"/>
         <v>5.6090830245210128</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="3"/>
         <v>0.9348471707535021</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>12.997999999999999</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="4"/>
         <v>5.3567471918756731</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="5"/>
         <v>0.89279119864594547</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>11.061</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>6.3564777144923603</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>0.90806824492748006</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>11.055999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="2"/>
         <v>6.4345151953690305</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="3"/>
         <v>0.91921645648129002</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>10.999000000000001</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f t="shared" si="4"/>
         <v>6.3303027547958894</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="5"/>
         <v>0.90432896497084136</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9.9139999999999997</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>7.0918902562033486</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>0.88648628202541857</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>9.6110000000000007</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
         <v>7.4019352824888145</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="3"/>
         <v>0.92524191031110181</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>9.9030000000000005</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f t="shared" si="4"/>
         <v>7.0308997273553464</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="5"/>
         <v>0.8788624659194183</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>8.6638999999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>8.1151675342513183</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>0.90168528158347983</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>8.5960000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
         <v>8.2759422987436011</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="3"/>
         <v>0.91954914430484458</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>8.6039999999999992</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f t="shared" si="4"/>
         <v>8.0923988842398895</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="5"/>
         <v>0.8991554315822099</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>7.7759999999999998</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>9.0417952674897126</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>0.90417952674897129</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>7.7489999999999997</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="2"/>
         <v>9.1805394244418643</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="3"/>
         <v>0.91805394244418648</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>7.7450000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f t="shared" si="4"/>
         <v>8.989928986442866</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="5"/>
         <v>0.89899289864428655</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>7.0449999999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>9.9799858055358399</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>0.90727143686689449</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>7.0389999999999997</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="2"/>
         <v>10.106549225742294</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="3"/>
         <v>0.91877720234020854</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>7.0369999999999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f t="shared" si="4"/>
         <v>9.8944152337643878</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="5"/>
         <v>0.89949229397858066</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>6.4740000000000002</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>10.860210071053444</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>0.9050175059211204</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>6.4569999999999999</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="2"/>
         <v>11.017500387176709</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="3"/>
         <v>0.91812503226472575</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>6.5339999999999998</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f t="shared" si="4"/>
         <v>10.656106519742883</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="5"/>
         <v>0.8880088766452402</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>6.1959999999999997</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>11.347482246610717</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>0.87288324973928588</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>5.9640000000000004</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="2"/>
         <v>11.928236083165659</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="3"/>
         <v>0.91755662178197384</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>6.0110000000000001</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="4"/>
         <v>11.58326401597072</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="5"/>
         <v>0.89102030892082462</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>5.5810000000000004</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>12.597921519440959</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>0.89985153710292565</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>5.5369999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="2"/>
         <v>12.848112696405996</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="3"/>
         <v>0.9177223354575712</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>5.5590000000000002</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" si="4"/>
         <v>12.525094441446303</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="5"/>
         <v>0.89464960296045015</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>5.1719999999999997</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>13.59416086620263</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>0.90627739108017535</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>5.1719999999999997</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="2"/>
         <v>13.754833720030936</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="3"/>
         <v>0.916988914668729</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>5.1959999999999997</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="4"/>
         <v>13.400115473441108</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="5"/>
         <v>0.89334103156274058</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>5.0490000000000004</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>13.92533174886116</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>0.87033323430382248</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>4.8419999999999996</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="2"/>
         <v>14.69227591904172</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="3"/>
         <v>0.91826724494010747</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>4.8479999999999999</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <f t="shared" si="4"/>
         <v>14.362004950495049</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="5"/>
         <v>0.89762530940594054</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>4.7279999999999998</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>14.870769881556685</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>0.87475116950333442</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>4.5650000000000004</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="2"/>
         <v>15.583789704271631</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="3"/>
         <v>0.91669351201597826</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>4.7530000000000001</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f t="shared" si="4"/>
         <v>14.649063749211024</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="5"/>
         <v>0.86170963230653086</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>4.367</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>16.100068697046027</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>0.89444826094700147</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>4.3019999999999996</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
         <v>16.536494653649466</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="3"/>
         <v>0.91869414742497035</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <f t="shared" si="4"/>
         <v>15.54174107142857</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="5"/>
         <v>0.86343005952380947</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>4.2450000000000001</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>16.562779740871612</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>0.87172524951955854</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>4.2910000000000004</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="2"/>
         <v>16.578886040549985</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f t="shared" si="3"/>
         <v>0.87257294950263076</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>4.2770000000000001</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <f t="shared" si="4"/>
         <v>16.279401449614213</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="5"/>
         <v>0.8568106026112744</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>3.931</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>17.885779699821928</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>0.89428898499109644</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>3.984</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="2"/>
         <v>17.856425702811244</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="3"/>
         <v>0.89282128514056214</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>3.8759999999999999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f t="shared" si="4"/>
         <v>17.963622291021672</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="5"/>
         <v>0.89818111455108363</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>3.8279999999999998</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>18.367032392894462</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>0.87462059013783156</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>3.7869999999999999</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="2"/>
         <v>18.785318193820967</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="3"/>
         <v>0.89453896161052227</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>3.7029999999999998</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f t="shared" si="4"/>
         <v>18.802862543883336</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="5"/>
         <v>0.89537440685158742</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>3.7229999999999999</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>18.885038947085683</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>0.85841086123116739</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>3.56</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <f t="shared" si="2"/>
         <v>19.983146067415731</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f t="shared" si="3"/>
         <v>0.90832482124616964</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>3.5390000000000001</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <f t="shared" si="4"/>
         <v>19.674201751907315</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="5"/>
         <v>0.89428189781396883</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>3.5569999999999999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>19.766376159685127</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>0.85940765911674466</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>3.452</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="2"/>
         <v>20.608342989571263</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="3"/>
         <v>0.89601491259005495</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>3.43</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <f t="shared" si="4"/>
         <v>20.299416909620987</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="5"/>
         <v>0.88258334389656468</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>3.3919999999999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>20.727889150943398</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>0.8636620479559749</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>3.331</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="2"/>
         <v>21.356949864905435</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="3"/>
         <v>0.88987291103772648</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>3.3050000000000002</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <f t="shared" si="4"/>
         <v>21.06717095310136</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="5"/>
         <v>0.87779878971255665</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>3.33</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>21.113813813813813</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>0.84455255255255257</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>3.2050000000000001</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="2"/>
         <v>22.19656786271451</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="3"/>
         <v>0.88786271450858034</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>3.2320000000000002</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <f t="shared" si="4"/>
         <v>21.543007425742573</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="5"/>
         <v>0.86172029702970288</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>3.2650000000000001</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>21.534150076569677</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>0.82823654140652603</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>3.1739999999999999</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f t="shared" si="2"/>
         <v>22.413358538122242</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f t="shared" si="3"/>
         <v>0.86205225146624009</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>3.1320000000000001</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <f t="shared" si="4"/>
         <v>22.230842911877392</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="5"/>
         <v>0.85503241968759203</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>3.1070000000000002</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>22.6292243321532</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>0.83811941970937776</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>3.0030000000000001</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f t="shared" si="2"/>
         <v>23.689643689643688</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="3"/>
         <v>0.87739421072754398</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>3.1110000000000002</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <f t="shared" si="4"/>
         <v>22.380906460945031</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="5"/>
         <v>0.82892246151648263</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>3.0129999999999999</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>23.335214072353136</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>0.83340050258404053</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>2.9079999999999999</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="2"/>
         <v>24.463548830811554</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="3"/>
         <v>0.87369817252898407</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>2.9649999999999999</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <f t="shared" si="4"/>
         <v>23.482967959527823</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="5"/>
         <v>0.83867742712599369</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>2.9060000000000001</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>24.19442532690984</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>0.83429052851413243</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>2.8330000000000002</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <f t="shared" si="2"/>
         <v>25.111189551711966</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f t="shared" si="3"/>
         <v>0.86590308799006777</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>2.9020000000000001</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <f t="shared" si="4"/>
         <v>23.992763611302546</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="5"/>
         <v>0.82733667625181195</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>2.8679999999999999</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>24.514993026499301</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>0.81716643421664337</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>2.754</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f t="shared" si="2"/>
         <v>25.831517792302105</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="3"/>
         <v>0.86105059307673681</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>2.7530000000000001</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <f t="shared" si="4"/>
         <v>25.291318561569195</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="5"/>
         <v>0.84304395205230653</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>2.7440000000000002</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>25.622813411078713</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>0.82654236809931336</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>2.6819999999999999</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="2"/>
         <v>26.524981357196122</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="3"/>
         <v>0.85564455990955235</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>2.68</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <f t="shared" si="4"/>
         <v>25.980223880597013</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="5"/>
         <v>0.83807173808377455</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>2.6859999999999999</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>26.176098287416231</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>0.81800307148175722</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>2.7429999999999999</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f t="shared" si="2"/>
         <v>25.935107546481955</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="3"/>
         <v>0.8104721108275611</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>2.6040000000000001</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <f t="shared" si="4"/>
         <v>26.738479262672808</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="5"/>
         <v>0.83557747695852524</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>2.5960000000000001</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>27.083590138674882</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="1"/>
         <v>0.82071485268711764</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>2.54</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="2"/>
         <v>28.00787401574803</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="3"/>
         <v>0.84872345502266755</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>2.6110000000000002</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <f t="shared" si="4"/>
         <v>26.666794331673685</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="5"/>
         <v>0.80808467671738438</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>2.6309999999999998</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>26.723299125807678</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>0.78597938605316697</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>2.5289999999999999</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <f t="shared" si="2"/>
         <v>28.129695531830766</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f t="shared" si="3"/>
         <v>0.82734398623031669</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>2.5910000000000002</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
         <f t="shared" si="4"/>
         <v>26.872636047857966</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <f t="shared" si="5"/>
         <v>0.79037164846641073</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>2.4969999999999999</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>28.15738886663997</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>0.80449682476114204</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>2.48</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <f t="shared" si="2"/>
         <v>28.685483870967744</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f t="shared" si="3"/>
         <v>0.81958525345622124</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>2.444</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <f t="shared" si="4"/>
         <v>28.488952536824875</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <f t="shared" si="5"/>
         <v>0.81397007248071074</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>2.4039999999999999</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>29.246672212978368</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="1"/>
         <v>0.8124075614716213</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>2.3740000000000001</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <f t="shared" si="2"/>
         <v>29.966301600673965</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f t="shared" si="3"/>
         <v>0.83239726668538794</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>2.4220000000000002</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <f t="shared" si="4"/>
         <v>28.74772914946325</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f t="shared" si="5"/>
         <v>0.79854803192953472</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>2.3650000000000002</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>29.728964059196613</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <f t="shared" si="1"/>
         <v>0.80348551511342203</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>2.3490000000000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <f t="shared" si="2"/>
         <v>30.285227756492123</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <f t="shared" si="3"/>
         <v>0.81851966909438167</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>2.3730000000000002</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <f t="shared" si="4"/>
         <v>29.341340075853346</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <f t="shared" si="5"/>
         <v>0.7930091912392796</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>2.387</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>29.454964390448261</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <f t="shared" si="1"/>
         <v>0.77513064185390157</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>2.274</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f t="shared" si="2"/>
         <v>31.284080914687774</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <f t="shared" si="3"/>
         <v>0.82326528722862558</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>2.2949999999999999</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <f t="shared" si="4"/>
         <v>30.338562091503267</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <f t="shared" si="5"/>
         <v>0.79838321293429648</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>2.254</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>31.19299023957409</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <f t="shared" si="1"/>
         <v>0.79982026255318184</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>2.2210000000000001</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <f t="shared" si="2"/>
         <v>32.03061683926159</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <f t="shared" si="3"/>
         <v>0.82129786767337409</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>2.262</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <f t="shared" si="4"/>
         <v>30.781167108753312</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <f t="shared" si="5"/>
         <v>0.78926069509623875</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>2.2469999999999999</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>31.290164663996439</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <f t="shared" si="1"/>
         <v>0.78225411659991095</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>2.27</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <f t="shared" si="2"/>
         <v>31.33920704845815</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <f t="shared" si="3"/>
         <v>0.78348017621145372</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>2.198</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <f t="shared" si="4"/>
         <v>31.677434030937214</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <f t="shared" si="5"/>
         <v>0.79193585077343032</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>2.1440000000000001</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>32.79337686567164</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <f t="shared" si="1"/>
         <v>0.79983846013833271</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>2.0979999999999999</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <f t="shared" si="2"/>
         <v>33.908484270734036</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f t="shared" si="3"/>
         <v>0.82703620172522041</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>2.101</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <f t="shared" si="4"/>
         <v>33.139933365064252</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <f t="shared" si="5"/>
         <v>0.80829105768449394</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>2.1659999999999999</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>32.460295475530934</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <f t="shared" si="1"/>
         <v>0.77286417798883178</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>2.0670000000000002</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <f t="shared" si="2"/>
         <v>34.41702951136913</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <f t="shared" si="3"/>
         <v>0.81945308360402691</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>2.0760000000000001</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <f t="shared" si="4"/>
         <v>33.539017341040456</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <f t="shared" si="5"/>
         <v>0.79854803192953461</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>2.0790000000000002</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>33.818662818662816</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <f t="shared" si="1"/>
         <v>0.78648053066657708</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>2.0510000000000002</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <f t="shared" si="2"/>
         <v>34.685519258898097</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <f t="shared" si="3"/>
         <v>0.80663998276507198</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>2.0539999999999998</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <f t="shared" si="4"/>
         <v>33.898247322297955</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <f t="shared" si="5"/>
         <v>0.78833133307669667</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>2.1309999999999998</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <f t="shared" si="0"/>
         <v>32.993430314406382</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <f t="shared" si="1"/>
         <v>0.74985068896378138</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>1.9770000000000001</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <f t="shared" si="2"/>
         <v>35.983813859382899</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f t="shared" si="3"/>
         <v>0.81781395134961132</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>2.0019999999999998</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3">
         <f t="shared" si="4"/>
         <v>34.778721278721278</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="3">
         <f t="shared" si="5"/>
         <v>0.7904254836073018</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>2.0619999999999998</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <f t="shared" si="0"/>
         <v>34.097478176527645</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <f t="shared" si="1"/>
         <v>0.75772173725616987</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>1.95</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <f t="shared" si="2"/>
         <v>36.48205128205128</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <f t="shared" si="3"/>
         <v>0.81071225071225073</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>1.96</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <f t="shared" si="4"/>
         <v>35.523979591836735</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <f t="shared" si="5"/>
         <v>0.78942176870748304</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>2.0790000000000002</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <f t="shared" si="0"/>
         <v>33.818662818662816</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <f t="shared" si="1"/>
         <v>0.73518832214484386</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>1.9690000000000001</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <f t="shared" si="2"/>
         <v>36.130015236160489</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <f t="shared" si="3"/>
         <v>0.78543511382957587</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>1.946</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <f t="shared" si="4"/>
         <v>35.779547790339159</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <f t="shared" si="5"/>
         <v>0.7778162563117208</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>2.1619999999999999</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <f t="shared" si="0"/>
         <v>32.520351526364479</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <f t="shared" si="1"/>
         <v>0.69192237290137193</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>1.929</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <f t="shared" si="2"/>
         <v>36.879212026956971</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <f t="shared" si="3"/>
         <v>0.78466408567993551</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>2.0129999999999999</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
         <f t="shared" si="4"/>
         <v>34.588673621460508</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <f t="shared" si="5"/>
         <v>0.7359292259885214</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>2.3769999999999998</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <f t="shared" si="0"/>
         <v>29.578880942364325</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <f t="shared" si="1"/>
         <v>0.61622668629925681</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>1.944</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <f t="shared" si="2"/>
         <v>36.594650205761319</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <f t="shared" si="3"/>
         <v>0.76238854595336081</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="3">
         <v>1.9419999999999999</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="3">
         <f t="shared" si="4"/>
         <v>35.853244078269825</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="3">
         <f t="shared" si="5"/>
         <v>0.74694258496395471</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="4"/>
+      <c r="C51" s="3">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>28.569280780170661</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>36.783867631851088</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="4"/>
+        <v>36.301876955161624</v>
+      </c>
+      <c r="K51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/parallel/schedule/schedule.xlsx
+++ b/parallel/schedule/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/cython_tutorial/parallel/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EFA13-9FD4-F84C-BA10-CD86E0792B9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E129DB53-1E1F-384D-BA8D-A1ED69C11CB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
     <sheet name="scheduling" sheetId="3" r:id="rId1"/>
@@ -357,145 +357,145 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="1">
-                  <c:v>0.91720152369025243</c:v>
+                  <c:v>0.92728553537883518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93670397015720752</c:v>
+                  <c:v>0.94700239808153475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93006243716598758</c:v>
+                  <c:v>0.94028784591777326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91334112756560137</c:v>
+                  <c:v>0.92338269680436458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89554196917590101</c:v>
+                  <c:v>0.90538784868169653</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90806824492748006</c:v>
+                  <c:v>0.91805184238056481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88648628202541857</c:v>
+                  <c:v>0.8962326003631228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90168528158347983</c:v>
+                  <c:v>0.9115987026627731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90417952674897129</c:v>
+                  <c:v>0.91412037037037019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90727143686689449</c:v>
+                  <c:v>0.91724627395315816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9050175059211204</c:v>
+                  <c:v>0.914967562557924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87288324973928588</c:v>
+                  <c:v>0.88248001191835912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89985153710292565</c:v>
+                  <c:v>0.90974479739933944</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90627739108017535</c:v>
+                  <c:v>0.91624129930394427</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87033323430382248</c:v>
+                  <c:v>0.8799019607843136</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.87475116950333442</c:v>
+                  <c:v>0.88436846819946258</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89444826094700147</c:v>
+                  <c:v>0.90428211586901752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.87172524951955854</c:v>
+                  <c:v>0.8813092802678073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89428898499109644</c:v>
+                  <c:v>0.90412108878148045</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.87462059013783156</c:v>
+                  <c:v>0.88423645320197031</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.85841086123116739</c:v>
+                  <c:v>0.8678485092667203</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.85940765911674466</c:v>
+                  <c:v>0.86885626627226153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8636620479559749</c:v>
+                  <c:v>0.87315742924528295</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.84455255255255257</c:v>
+                  <c:v>0.85383783783783773</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.82823654140652603</c:v>
+                  <c:v>0.83734244316173856</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83811941970937776</c:v>
+                  <c:v>0.84733397704108981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83340050258404053</c:v>
+                  <c:v>0.84256317860698871</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83429052851413243</c:v>
+                  <c:v>0.84346298977145973</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.81716643421664337</c:v>
+                  <c:v>0.82615062761506275</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.82654236809931336</c:v>
+                  <c:v>0.83562964356249403</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.81800307148175722</c:v>
+                  <c:v>0.82699646314221886</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82071485268711764</c:v>
+                  <c:v>0.82973805855161775</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.78597938605316697</c:v>
+                  <c:v>0.79462069890670062</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.80449682476114204</c:v>
+                  <c:v>0.81334172435494012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8124075614716213</c:v>
+                  <c:v>0.82133943427620626</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.80348551511342203</c:v>
+                  <c:v>0.81231929604022612</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.77513064185390157</c:v>
+                  <c:v>0.78365268008731492</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.79982026255318184</c:v>
+                  <c:v>0.80861374650194517</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78225411659991095</c:v>
+                  <c:v>0.7908544726301735</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.79983846013833271</c:v>
+                  <c:v>0.80863214415726248</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.77286417798883178</c:v>
+                  <c:v>0.78136129798179665</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.78648053066657708</c:v>
+                  <c:v>0.79512735326688799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.74985068896378138</c:v>
+                  <c:v>0.75809479117785084</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.75772173725616987</c:v>
+                  <c:v>0.76605237633365653</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.73518832214484386</c:v>
+                  <c:v>0.74327122153209091</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.69192237290137193</c:v>
+                  <c:v>0.69952959237900281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.61622668629925681</c:v>
+                  <c:v>0.62300168279343715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,145 +693,145 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="1">
-                  <c:v>0.97169862864011358</c:v>
+                  <c:v>0.9813008796372179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96219652397376076</c:v>
+                  <c:v>0.97170487590451071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92413613925694982</c:v>
+                  <c:v>0.93326838139776569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91457221829401547</c:v>
+                  <c:v>0.92360995050459604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9348471707535021</c:v>
+                  <c:v>0.94408525848248315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91921645648129002</c:v>
+                  <c:v>0.92830008269588593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92524191031110181</c:v>
+                  <c:v>0.93438507959629591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91954914430484458</c:v>
+                  <c:v>0.92863605811488548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91805394244418648</c:v>
+                  <c:v>0.92712608078461733</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91877720234020854</c:v>
+                  <c:v>0.92785648787921848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91812503226472575</c:v>
+                  <c:v>0.92719787310928714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91755662178197384</c:v>
+                  <c:v>0.9266238456379301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9177223354575712</c:v>
+                  <c:v>0.92679119688330458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.916988914668729</c:v>
+                  <c:v>0.92605052848672342</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91826724494010747</c:v>
+                  <c:v>0.92734149111937225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91669351201597826</c:v>
+                  <c:v>0.92575220668771341</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91869414742497035</c:v>
+                  <c:v>0.92777261222170582</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.87257294950263076</c:v>
+                  <c:v>0.88119564817426921</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89282128514056214</c:v>
+                  <c:v>0.90164407630522092</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89453896161052227</c:v>
+                  <c:v>0.90337872672174246</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90832482124616964</c:v>
+                  <c:v>0.91730081716036771</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.89601491259005495</c:v>
+                  <c:v>0.90486926293516057</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88987291103772648</c:v>
+                  <c:v>0.8986665665966177</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88786271450858034</c:v>
+                  <c:v>0.89663650546021845</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86205225146624009</c:v>
+                  <c:v>0.87057098541030498</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.87739421072754398</c:v>
+                  <c:v>0.88606455273121942</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.87369817252898407</c:v>
+                  <c:v>0.88233199056789158</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.86590308799006777</c:v>
+                  <c:v>0.87445987560402638</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.86105059307673681</c:v>
+                  <c:v>0.86955942870975556</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.85564455990955235</c:v>
+                  <c:v>0.86409997353924617</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8104721108275611</c:v>
+                  <c:v>0.81848113379511489</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.84872345502266755</c:v>
+                  <c:v>0.8571104748270103</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.82734398623031669</c:v>
+                  <c:v>0.83551973577093952</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.81958525345622124</c:v>
+                  <c:v>0.82768433179723511</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.83239726668538794</c:v>
+                  <c:v>0.84062295235420759</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.81851966909438167</c:v>
+                  <c:v>0.82660821741281509</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.82326528722862558</c:v>
+                  <c:v>0.831400731379901</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.82129786767337409</c:v>
+                  <c:v>0.82941386993615729</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78348017621145372</c:v>
+                  <c:v>0.79122246696035248</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.82703620172522041</c:v>
+                  <c:v>0.83520890976307305</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.81945308360402691</c:v>
+                  <c:v>0.82755085585274268</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.80663998276507198</c:v>
+                  <c:v>0.81461113693830567</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.81781395134961132</c:v>
+                  <c:v>0.82589552581965331</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.81071225071225073</c:v>
+                  <c:v>0.81872364672364673</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.78543511382957587</c:v>
+                  <c:v>0.79319672312142553</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.78466408567993551</c:v>
+                  <c:v>0.79241807573100387</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.76238854595336081</c:v>
+                  <c:v>0.76992241083676272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,145 +1029,145 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="1">
-                  <c:v>0.94622472276581859</c:v>
+                  <c:v>0.96162209175907809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92724730323611659</c:v>
+                  <c:v>0.9423358636303103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91822282006646616</c:v>
+                  <c:v>0.93316453025267709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91081169468245149</c:v>
+                  <c:v>0.92563280790110558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89279119864594547</c:v>
+                  <c:v>0.90731907472944562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90432896497084136</c:v>
+                  <c:v>0.91904458846908166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8788624659194183</c:v>
+                  <c:v>0.89316368777138244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8991554315822099</c:v>
+                  <c:v>0.9137868691564649</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89899289864428655</c:v>
+                  <c:v>0.91362169141381544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89949229397858066</c:v>
+                  <c:v>0.91412921312026052</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8880088766452402</c:v>
+                  <c:v>0.9024589327619631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89102030892082462</c:v>
+                  <c:v>0.9055193683375351</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89464960296045015</c:v>
+                  <c:v>0.90920771978516179</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89334103156274058</c:v>
+                  <c:v>0.90787785476007199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.89762530940594054</c:v>
+                  <c:v>0.91223184818481862</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86170963230653086</c:v>
+                  <c:v>0.87573173599336651</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86343005952380947</c:v>
+                  <c:v>0.87748015873015872</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8568106026112744</c:v>
+                  <c:v>0.87075298721435335</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89818111455108363</c:v>
+                  <c:v>0.91279669762641902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89537440685158742</c:v>
+                  <c:v>0.90994431799184705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.89428189781396883</c:v>
+                  <c:v>0.90883403118497774</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88258334389656468</c:v>
+                  <c:v>0.89694511344910632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.87779878971255665</c:v>
+                  <c:v>0.89208270297528991</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86172029702970288</c:v>
+                  <c:v>0.87574257425742574</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.85503241968759203</c:v>
+                  <c:v>0.86894586894586889</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.82892246151648263</c:v>
+                  <c:v>0.84241103848946985</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83867742712599369</c:v>
+                  <c:v>0.85232474102625877</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.82733667625181195</c:v>
+                  <c:v>0.84079944865609924</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.84304395205230653</c:v>
+                  <c:v>0.85676231989344964</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.83807173808377455</c:v>
+                  <c:v>0.85170919595570538</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.83557747695852524</c:v>
+                  <c:v>0.84917434715821816</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80808467671738438</c:v>
+                  <c:v>0.8212341724406067</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.79037164846641073</c:v>
+                  <c:v>0.80323291030036104</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.81397007248071074</c:v>
+                  <c:v>0.82721533785363577</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.79854803192953472</c:v>
+                  <c:v>0.81154234333425079</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.7930091912392796</c:v>
+                  <c:v>0.80591337228505366</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.79838321293429648</c:v>
+                  <c:v>0.81137484233459478</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.78926069509623875</c:v>
+                  <c:v>0.80210387902695601</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.79193585077343032</c:v>
+                  <c:v>0.80482256596906276</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80829105768449394</c:v>
+                  <c:v>0.82144391172612352</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.79854803192953461</c:v>
+                  <c:v>0.8115423433342509</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.78833133307669667</c:v>
+                  <c:v>0.80115939403546133</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7904254836073018</c:v>
+                  <c:v>0.80328762146943977</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.78942176870748304</c:v>
+                  <c:v>0.80226757369614521</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.7778162563117208</c:v>
+                  <c:v>0.7904732114929176</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7359292259885214</c:v>
+                  <c:v>0.74790457769181184</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.74694258496395471</c:v>
+                  <c:v>0.75909715070374195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,7 +2272,7 @@
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2308,17 +2308,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>70.308999999999997</v>
+        <v>71.081999999999994</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
-        <v>71.14</v>
+        <v>71.843000000000004</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
-        <v>69.626999999999995</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2332,33 +2332,33 @@
       </c>
       <c r="D4" s="3">
         <f>C$3/C4</f>
-        <v>1.8344030473805049</v>
+        <v>1.8545710707576704</v>
       </c>
       <c r="E4" s="3">
         <f>D4/$B4</f>
-        <v>0.91720152369025243</v>
+        <v>0.92728553537883518</v>
       </c>
       <c r="F4" s="3">
         <v>36.606000000000002</v>
       </c>
       <c r="G4" s="3">
         <f>F$3/F4</f>
-        <v>1.9433972572802272</v>
+        <v>1.9626017592744358</v>
       </c>
       <c r="H4" s="3">
         <f>G4/$B4</f>
-        <v>0.97169862864011358</v>
+        <v>0.9813008796372179</v>
       </c>
       <c r="I4" s="3">
         <v>36.792000000000002</v>
       </c>
       <c r="J4" s="3">
         <f>I$3/I4</f>
-        <v>1.8924494455316372</v>
+        <v>1.9232441835181562</v>
       </c>
       <c r="K4" s="3">
         <f>J4/$B4</f>
-        <v>0.94622472276581859</v>
+        <v>0.96162209175907809</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -2370,33 +2370,33 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D51" si="0">C$3/C5</f>
-        <v>2.8101119104716226</v>
+        <v>2.8410071942446042</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ref="E5:E50" si="1">D5/$B5</f>
-        <v>0.93670397015720752</v>
+        <v>0.94700239808153475</v>
       </c>
       <c r="F5" s="3">
         <v>24.645</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ref="G5:G51" si="2">F$3/F5</f>
-        <v>2.8865895719212822</v>
+        <v>2.9151146277135322</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H50" si="3">G5/$B5</f>
-        <v>0.96219652397376076</v>
+        <v>0.97170487590451071</v>
       </c>
       <c r="I5" s="3">
         <v>25.03</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ref="J5:J51" si="4">I$3/I5</f>
-        <v>2.7817419097083498</v>
+        <v>2.8270075908909309</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ref="K5:K50" si="5">J5/$B5</f>
-        <v>0.92724730323611659</v>
+        <v>0.9423358636303103</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -2408,33 +2408,33 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3.7202497486639503</v>
+        <v>3.761151383671093</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>0.93006243716598758</v>
+        <v>0.94028784591777326</v>
       </c>
       <c r="F6" s="3">
         <v>19.245000000000001</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="2"/>
-        <v>3.6965445570277993</v>
+        <v>3.7330735255910628</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
-        <v>0.92413613925694982</v>
+        <v>0.93326838139776569</v>
       </c>
       <c r="I6" s="3">
         <v>18.957000000000001</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="4"/>
-        <v>3.6728912802658646</v>
+        <v>3.7326581210107084</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="5"/>
-        <v>0.91822282006646616</v>
+        <v>0.93316453025267709</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -2446,33 +2446,33 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>4.5667056378280071</v>
+        <v>4.6169134840218229</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>0.91334112756560137</v>
+        <v>0.92338269680436458</v>
       </c>
       <c r="F7" s="3">
         <v>15.557</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="2"/>
-        <v>4.5728610914700774</v>
+        <v>4.61804975252298</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="3"/>
-        <v>0.91457221829401547</v>
+        <v>0.92360995050459604</v>
       </c>
       <c r="I7" s="3">
         <v>15.289</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="4"/>
-        <v>4.5540584734122573</v>
+        <v>4.6281640395055277</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="5"/>
-        <v>0.91081169468245149</v>
+        <v>0.92563280790110558</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -2484,33 +2484,33 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>5.3732518150554061</v>
+        <v>5.4323270920901789</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>0.89554196917590101</v>
+        <v>0.90538784868169653</v>
       </c>
       <c r="F8" s="3">
         <v>12.683</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="2"/>
-        <v>5.6090830245210128</v>
+        <v>5.6645115508948987</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>0.9348471707535021</v>
+        <v>0.94408525848248315</v>
       </c>
       <c r="I8" s="3">
         <v>12.997999999999999</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="4"/>
-        <v>5.3567471918756731</v>
+        <v>5.4439144483766739</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="5"/>
-        <v>0.89279119864594547</v>
+        <v>0.90731907472944562</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -2522,33 +2522,33 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>6.3564777144923603</v>
+        <v>6.4263628966639539</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>0.90806824492748006</v>
+        <v>0.91805184238056481</v>
       </c>
       <c r="F9" s="3">
         <v>11.055999999999999</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="2"/>
-        <v>6.4345151953690305</v>
+        <v>6.4981005788712016</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>0.91921645648129002</v>
+        <v>0.92830008269588593</v>
       </c>
       <c r="I9" s="3">
         <v>10.999000000000001</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="4"/>
-        <v>6.3303027547958894</v>
+        <v>6.4333121192835714</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="5"/>
-        <v>0.90432896497084136</v>
+        <v>0.91904458846908166</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -2560,33 +2560,33 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>7.0918902562033486</v>
+        <v>7.1698608029049824</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>0.88648628202541857</v>
+        <v>0.8962326003631228</v>
       </c>
       <c r="F10" s="3">
         <v>9.6110000000000007</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="2"/>
-        <v>7.4019352824888145</v>
+        <v>7.4750806367703673</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>0.92524191031110181</v>
+        <v>0.93438507959629591</v>
       </c>
       <c r="I10" s="3">
         <v>9.9030000000000005</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="4"/>
-        <v>7.0308997273553464</v>
+        <v>7.1453095021710595</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>0.8788624659194183</v>
+        <v>0.89316368777138244</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -2598,33 +2598,33 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>8.1151675342513183</v>
+        <v>8.2043883239649578</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>0.90168528158347983</v>
+        <v>0.9115987026627731</v>
       </c>
       <c r="F11" s="3">
         <v>8.5960000000000001</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="2"/>
-        <v>8.2759422987436011</v>
+        <v>8.3577245230339692</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>0.91954914430484458</v>
+        <v>0.92863605811488548</v>
       </c>
       <c r="I11" s="3">
         <v>8.6039999999999992</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="4"/>
-        <v>8.0923988842398895</v>
+        <v>8.2240818224081842</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="5"/>
-        <v>0.8991554315822099</v>
+        <v>0.9137868691564649</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -2636,33 +2636,33 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>9.0417952674897126</v>
+        <v>9.1412037037037024</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>0.90417952674897129</v>
+        <v>0.91412037037037019</v>
       </c>
       <c r="F12" s="3">
         <v>7.7489999999999997</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>9.1805394244418643</v>
+        <v>9.2712608078461738</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>0.91805394244418648</v>
+        <v>0.92712608078461733</v>
       </c>
       <c r="I12" s="3">
         <v>7.7450000000000001</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="4"/>
-        <v>8.989928986442866</v>
+        <v>9.1362169141381546</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="5"/>
-        <v>0.89899289864428655</v>
+        <v>0.91362169141381544</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -2674,33 +2674,33 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9799858055358399</v>
+        <v>10.08970901348474</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>0.90727143686689449</v>
+        <v>0.91724627395315816</v>
       </c>
       <c r="F13" s="3">
         <v>7.0389999999999997</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>10.106549225742294</v>
+        <v>10.206421366671403</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>0.91877720234020854</v>
+        <v>0.92785648787921848</v>
       </c>
       <c r="I13" s="3">
         <v>7.0369999999999999</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="4"/>
-        <v>9.8944152337643878</v>
+        <v>10.055421344322866</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="5"/>
-        <v>0.89949229397858066</v>
+        <v>0.91412921312026052</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -2712,33 +2712,33 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>10.860210071053444</v>
+        <v>10.979610750695088</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>0.9050175059211204</v>
+        <v>0.914967562557924</v>
       </c>
       <c r="F14" s="3">
         <v>6.4569999999999999</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="2"/>
-        <v>11.017500387176709</v>
+        <v>11.126374477311446</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>0.91812503226472575</v>
+        <v>0.92719787310928714</v>
       </c>
       <c r="I14" s="3">
         <v>6.5339999999999998</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="4"/>
-        <v>10.656106519742883</v>
+        <v>10.829507193143558</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="5"/>
-        <v>0.8880088766452402</v>
+        <v>0.9024589327619631</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -2750,33 +2750,33 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>11.347482246610717</v>
+        <v>11.472240154938669</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>0.87288324973928588</v>
+        <v>0.88248001191835912</v>
       </c>
       <c r="F15" s="3">
         <v>5.9640000000000004</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="2"/>
-        <v>11.928236083165659</v>
+        <v>12.046109993293092</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>0.91755662178197384</v>
+        <v>0.9266238456379301</v>
       </c>
       <c r="I15" s="3">
         <v>6.0110000000000001</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="4"/>
-        <v>11.58326401597072</v>
+        <v>11.771751788387956</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="5"/>
-        <v>0.89102030892082462</v>
+        <v>0.9055193683375351</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -2788,33 +2788,33 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>12.597921519440959</v>
+        <v>12.736427163590752</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>0.89985153710292565</v>
+        <v>0.90974479739933944</v>
       </c>
       <c r="F16" s="3">
         <v>5.5369999999999999</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>12.848112696405996</v>
+        <v>12.975076756366263</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>0.9177223354575712</v>
+        <v>0.92679119688330458</v>
       </c>
       <c r="I16" s="3">
         <v>5.5590000000000002</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="4"/>
-        <v>12.525094441446303</v>
+        <v>12.728908076992266</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="5"/>
-        <v>0.89464960296045015</v>
+        <v>0.90920771978516179</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -2826,33 +2826,33 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>13.59416086620263</v>
+        <v>13.743619489559164</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>0.90627739108017535</v>
+        <v>0.91624129930394427</v>
       </c>
       <c r="F17" s="3">
         <v>5.1719999999999997</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="2"/>
-        <v>13.754833720030936</v>
+        <v>13.890757927300852</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>0.916988914668729</v>
+        <v>0.92605052848672342</v>
       </c>
       <c r="I17" s="3">
         <v>5.1959999999999997</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="4"/>
-        <v>13.400115473441108</v>
+        <v>13.61816782140108</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="5"/>
-        <v>0.89334103156274058</v>
+        <v>0.90787785476007199</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -2864,33 +2864,33 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>13.92533174886116</v>
+        <v>14.078431372549018</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>0.87033323430382248</v>
+        <v>0.8799019607843136</v>
       </c>
       <c r="F18" s="3">
         <v>4.8419999999999996</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>14.69227591904172</v>
+        <v>14.837463857909956</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>0.91826724494010747</v>
+        <v>0.92734149111937225</v>
       </c>
       <c r="I18" s="3">
         <v>4.8479999999999999</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="4"/>
-        <v>14.362004950495049</v>
+        <v>14.595709570957098</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="5"/>
-        <v>0.89762530940594054</v>
+        <v>0.91223184818481862</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -2902,33 +2902,33 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>14.870769881556685</v>
+        <v>15.034263959390863</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>0.87475116950333442</v>
+        <v>0.88436846819946258</v>
       </c>
       <c r="F19" s="3">
         <v>4.5650000000000004</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v>15.583789704271631</v>
+        <v>15.737787513691128</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v>0.91669351201597826</v>
+        <v>0.92575220668771341</v>
       </c>
       <c r="I19" s="3">
         <v>4.7530000000000001</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="4"/>
-        <v>14.649063749211024</v>
+        <v>14.88743951188723</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="5"/>
-        <v>0.86170963230653086</v>
+        <v>0.87573173599336651</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -2940,33 +2940,33 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>16.100068697046027</v>
+        <v>16.277078085642316</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>0.89444826094700147</v>
+        <v>0.90428211586901752</v>
       </c>
       <c r="F20" s="3">
         <v>4.3019999999999996</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>16.536494653649466</v>
+        <v>16.699907019990704</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>0.91869414742497035</v>
+        <v>0.92777261222170582</v>
       </c>
       <c r="I20" s="3">
         <v>4.4800000000000004</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="4"/>
-        <v>15.54174107142857</v>
+        <v>15.794642857142858</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="5"/>
-        <v>0.86343005952380947</v>
+        <v>0.87748015873015872</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -2978,33 +2978,33 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>16.562779740871612</v>
+        <v>16.744876325088338</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>0.87172524951955854</v>
+        <v>0.8813092802678073</v>
       </c>
       <c r="F21" s="3">
         <v>4.2910000000000004</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>16.578886040549985</v>
+        <v>16.742717315311115</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>0.87257294950263076</v>
+        <v>0.88119564817426921</v>
       </c>
       <c r="I21" s="3">
         <v>4.2770000000000001</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="4"/>
-        <v>16.279401449614213</v>
+        <v>16.544306757072714</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="5"/>
-        <v>0.8568106026112744</v>
+        <v>0.87075298721435335</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -3016,33 +3016,33 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>17.885779699821928</v>
+        <v>18.082421775629609</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>0.89428898499109644</v>
+        <v>0.90412108878148045</v>
       </c>
       <c r="F22" s="3">
         <v>3.984</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="2"/>
-        <v>17.856425702811244</v>
+        <v>18.032881526104418</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>0.89282128514056214</v>
+        <v>0.90164407630522092</v>
       </c>
       <c r="I22" s="3">
         <v>3.8759999999999999</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="4"/>
-        <v>17.963622291021672</v>
+        <v>18.25593395252838</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="5"/>
-        <v>0.89818111455108363</v>
+        <v>0.91279669762641902</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -3054,33 +3054,33 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>18.367032392894462</v>
+        <v>18.568965517241377</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>0.87462059013783156</v>
+        <v>0.88423645320197031</v>
       </c>
       <c r="F23" s="3">
         <v>3.7869999999999999</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
-        <v>18.785318193820967</v>
+        <v>18.970953261156591</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>0.89453896161052227</v>
+        <v>0.90337872672174246</v>
       </c>
       <c r="I23" s="3">
         <v>3.7029999999999998</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="4"/>
-        <v>18.802862543883336</v>
+        <v>19.108830677828788</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="5"/>
-        <v>0.89537440685158742</v>
+        <v>0.90994431799184705</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -3092,33 +3092,33 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>18.885038947085683</v>
+        <v>19.092667203867848</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>0.85841086123116739</v>
+        <v>0.8678485092667203</v>
       </c>
       <c r="F24" s="3">
         <v>3.56</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="2"/>
-        <v>19.983146067415731</v>
+        <v>20.18061797752809</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>0.90832482124616964</v>
+        <v>0.91730081716036771</v>
       </c>
       <c r="I24" s="3">
         <v>3.5390000000000001</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="4"/>
-        <v>19.674201751907315</v>
+        <v>19.994348686069511</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="5"/>
-        <v>0.89428189781396883</v>
+        <v>0.90883403118497774</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -3130,33 +3130,33 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>19.766376159685127</v>
+        <v>19.983694124262016</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>0.85940765911674466</v>
+        <v>0.86885626627226153</v>
       </c>
       <c r="F25" s="3">
         <v>3.452</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="2"/>
-        <v>20.608342989571263</v>
+        <v>20.811993047508693</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>0.89601491259005495</v>
+        <v>0.90486926293516057</v>
       </c>
       <c r="I25" s="3">
         <v>3.43</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="4"/>
-        <v>20.299416909620987</v>
+        <v>20.629737609329446</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="5"/>
-        <v>0.88258334389656468</v>
+        <v>0.89694511344910632</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -3168,33 +3168,33 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>20.727889150943398</v>
+        <v>20.955778301886792</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="1"/>
-        <v>0.8636620479559749</v>
+        <v>0.87315742924528295</v>
       </c>
       <c r="F26" s="3">
         <v>3.331</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="2"/>
-        <v>21.356949864905435</v>
+        <v>21.567997598318826</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>0.88987291103772648</v>
+        <v>0.8986665665966177</v>
       </c>
       <c r="I26" s="3">
         <v>3.3050000000000002</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="4"/>
-        <v>21.06717095310136</v>
+        <v>21.409984871406959</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="5"/>
-        <v>0.87779878971255665</v>
+        <v>0.89208270297528991</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -3206,33 +3206,33 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>21.113813813813813</v>
+        <v>21.345945945945942</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>0.84455255255255257</v>
+        <v>0.85383783783783773</v>
       </c>
       <c r="F27" s="3">
         <v>3.2050000000000001</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="2"/>
-        <v>22.19656786271451</v>
+        <v>22.41591263650546</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>0.88786271450858034</v>
+        <v>0.89663650546021845</v>
       </c>
       <c r="I27" s="3">
         <v>3.2320000000000002</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="4"/>
-        <v>21.543007425742573</v>
+        <v>21.893564356435643</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="5"/>
-        <v>0.86172029702970288</v>
+        <v>0.87574257425742574</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -3244,33 +3244,33 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>21.534150076569677</v>
+        <v>21.770903522205202</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>0.82823654140652603</v>
+        <v>0.83734244316173856</v>
       </c>
       <c r="F28" s="3">
         <v>3.1739999999999999</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="2"/>
-        <v>22.413358538122242</v>
+        <v>22.634845620667928</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="3"/>
-        <v>0.86205225146624009</v>
+        <v>0.87057098541030498</v>
       </c>
       <c r="I28" s="3">
         <v>3.1320000000000001</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="4"/>
-        <v>22.230842911877392</v>
+        <v>22.592592592592592</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="5"/>
-        <v>0.85503241968759203</v>
+        <v>0.86894586894586889</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -3282,33 +3282,33 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>22.6292243321532</v>
+        <v>22.878017380109426</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.83811941970937776</v>
+        <v>0.84733397704108981</v>
       </c>
       <c r="F29" s="3">
         <v>3.0030000000000001</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="2"/>
-        <v>23.689643689643688</v>
+        <v>23.923742923742925</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="3"/>
-        <v>0.87739421072754398</v>
+        <v>0.88606455273121942</v>
       </c>
       <c r="I29" s="3">
         <v>3.1110000000000002</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="4"/>
-        <v>22.380906460945031</v>
+        <v>22.745098039215687</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="5"/>
-        <v>0.82892246151648263</v>
+        <v>0.84241103848946985</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -3320,33 +3320,33 @@
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>23.335214072353136</v>
+        <v>23.591769000995683</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>0.83340050258404053</v>
+        <v>0.84256317860698871</v>
       </c>
       <c r="F30" s="3">
         <v>2.9079999999999999</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="2"/>
-        <v>24.463548830811554</v>
+        <v>24.705295735900965</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="3"/>
-        <v>0.87369817252898407</v>
+        <v>0.88233199056789158</v>
       </c>
       <c r="I30" s="3">
         <v>2.9649999999999999</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="4"/>
-        <v>23.482967959527823</v>
+        <v>23.865092748735247</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="5"/>
-        <v>0.83867742712599369</v>
+        <v>0.85232474102625877</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -3358,33 +3358,33 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>24.19442532690984</v>
+        <v>24.460426703372331</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>0.83429052851413243</v>
+        <v>0.84346298977145973</v>
       </c>
       <c r="F31" s="3">
         <v>2.8330000000000002</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="2"/>
-        <v>25.111189551711966</v>
+        <v>25.359336392516767</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="3"/>
-        <v>0.86590308799006777</v>
+        <v>0.87445987560402638</v>
       </c>
       <c r="I31" s="3">
         <v>2.9020000000000001</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="4"/>
-        <v>23.992763611302546</v>
+        <v>24.383184011026877</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="5"/>
-        <v>0.82733667625181195</v>
+        <v>0.84079944865609924</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -3396,33 +3396,33 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>24.514993026499301</v>
+        <v>24.784518828451883</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>0.81716643421664337</v>
+        <v>0.82615062761506275</v>
       </c>
       <c r="F32" s="3">
         <v>2.754</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="2"/>
-        <v>25.831517792302105</v>
+        <v>26.086782861292665</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="3"/>
-        <v>0.86105059307673681</v>
+        <v>0.86955942870975556</v>
       </c>
       <c r="I32" s="3">
         <v>2.7530000000000001</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="4"/>
-        <v>25.291318561569195</v>
+        <v>25.702869596803488</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="5"/>
-        <v>0.84304395205230653</v>
+        <v>0.85676231989344964</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -3434,33 +3434,33 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>25.622813411078713</v>
+        <v>25.904518950437314</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>0.82654236809931336</v>
+        <v>0.83562964356249403</v>
       </c>
       <c r="F33" s="3">
         <v>2.6819999999999999</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="2"/>
-        <v>26.524981357196122</v>
+        <v>26.78709917971663</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="3"/>
-        <v>0.85564455990955235</v>
+        <v>0.86409997353924617</v>
       </c>
       <c r="I33" s="3">
         <v>2.68</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="4"/>
-        <v>25.980223880597013</v>
+        <v>26.402985074626866</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="5"/>
-        <v>0.83807173808377455</v>
+        <v>0.85170919595570538</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -3472,33 +3472,33 @@
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>26.176098287416231</v>
+        <v>26.463886820551004</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="1"/>
-        <v>0.81800307148175722</v>
+        <v>0.82699646314221886</v>
       </c>
       <c r="F34" s="3">
         <v>2.7429999999999999</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="2"/>
-        <v>25.935107546481955</v>
+        <v>26.191396281443676</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>0.8104721108275611</v>
+        <v>0.81848113379511489</v>
       </c>
       <c r="I34" s="3">
         <v>2.6040000000000001</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="4"/>
-        <v>26.738479262672808</v>
+        <v>27.173579109062981</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="5"/>
-        <v>0.83557747695852524</v>
+        <v>0.84917434715821816</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -3510,33 +3510,33 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>27.083590138674882</v>
+        <v>27.381355932203387</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="1"/>
-        <v>0.82071485268711764</v>
+        <v>0.82973805855161775</v>
       </c>
       <c r="F35" s="3">
         <v>2.54</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="2"/>
-        <v>28.00787401574803</v>
+        <v>28.28464566929134</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>0.84872345502266755</v>
+        <v>0.8571104748270103</v>
       </c>
       <c r="I35" s="3">
         <v>2.6110000000000002</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="4"/>
-        <v>26.666794331673685</v>
+        <v>27.100727690540023</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="5"/>
-        <v>0.80808467671738438</v>
+        <v>0.8212341724406067</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -3548,33 +3548,33 @@
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>26.723299125807678</v>
+        <v>27.017103762827823</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="1"/>
-        <v>0.78597938605316697</v>
+        <v>0.79462069890670062</v>
       </c>
       <c r="F36" s="3">
         <v>2.5289999999999999</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="2"/>
-        <v>28.129695531830766</v>
+        <v>28.407671016211943</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="3"/>
-        <v>0.82734398623031669</v>
+        <v>0.83551973577093952</v>
       </c>
       <c r="I36" s="3">
         <v>2.5910000000000002</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="4"/>
-        <v>26.872636047857966</v>
+        <v>27.309918950212275</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="5"/>
-        <v>0.79037164846641073</v>
+        <v>0.80323291030036104</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -3586,33 +3586,33 @@
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>28.15738886663997</v>
+        <v>28.466960352422905</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="1"/>
-        <v>0.80449682476114204</v>
+        <v>0.81334172435494012</v>
       </c>
       <c r="F37" s="3">
         <v>2.48</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="2"/>
-        <v>28.685483870967744</v>
+        <v>28.968951612903229</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="3"/>
-        <v>0.81958525345622124</v>
+        <v>0.82768433179723511</v>
       </c>
       <c r="I37" s="3">
         <v>2.444</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="4"/>
-        <v>28.488952536824875</v>
+        <v>28.952536824877253</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="5"/>
-        <v>0.81397007248071074</v>
+        <v>0.82721533785363577</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -3624,33 +3624,33 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>29.246672212978368</v>
+        <v>29.568219633943425</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="1"/>
-        <v>0.8124075614716213</v>
+        <v>0.82133943427620626</v>
       </c>
       <c r="F38" s="3">
         <v>2.3740000000000001</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="2"/>
-        <v>29.966301600673965</v>
+        <v>30.262426284751474</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="3"/>
-        <v>0.83239726668538794</v>
+        <v>0.84062295235420759</v>
       </c>
       <c r="I38" s="3">
         <v>2.4220000000000002</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="4"/>
-        <v>28.74772914946325</v>
+        <v>29.215524360033029</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="5"/>
-        <v>0.79854803192953472</v>
+        <v>0.81154234333425079</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -3662,33 +3662,33 @@
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>29.728964059196613</v>
+        <v>30.055813953488368</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="1"/>
-        <v>0.80348551511342203</v>
+        <v>0.81231929604022612</v>
       </c>
       <c r="F39" s="3">
         <v>2.3490000000000002</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="2"/>
-        <v>30.285227756492123</v>
+        <v>30.584504044274158</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="3"/>
-        <v>0.81851966909438167</v>
+        <v>0.82660821741281509</v>
       </c>
       <c r="I39" s="3">
         <v>2.3730000000000002</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="4"/>
-        <v>29.341340075853346</v>
+        <v>29.818794774546987</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="5"/>
-        <v>0.7930091912392796</v>
+        <v>0.80591337228505366</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
@@ -3700,33 +3700,33 @@
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>29.454964390448261</v>
+        <v>29.778801843317968</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="1"/>
-        <v>0.77513064185390157</v>
+        <v>0.78365268008731492</v>
       </c>
       <c r="F40" s="3">
         <v>2.274</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="2"/>
-        <v>31.284080914687774</v>
+        <v>31.593227792436238</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="3"/>
-        <v>0.82326528722862558</v>
+        <v>0.831400731379901</v>
       </c>
       <c r="I40" s="3">
         <v>2.2949999999999999</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="4"/>
-        <v>30.338562091503267</v>
+        <v>30.8322440087146</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="5"/>
-        <v>0.79838321293429648</v>
+        <v>0.81137484233459478</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
@@ -3738,33 +3738,33 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>31.19299023957409</v>
+        <v>31.535936113575861</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="1"/>
-        <v>0.79982026255318184</v>
+        <v>0.80861374650194517</v>
       </c>
       <c r="F41" s="3">
         <v>2.2210000000000001</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="2"/>
-        <v>32.03061683926159</v>
+        <v>32.347140927510132</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="3"/>
-        <v>0.82129786767337409</v>
+        <v>0.82941386993615729</v>
       </c>
       <c r="I41" s="3">
         <v>2.262</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="4"/>
-        <v>30.781167108753312</v>
+        <v>31.282051282051285</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" si="5"/>
-        <v>0.78926069509623875</v>
+        <v>0.80210387902695601</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
@@ -3776,33 +3776,33 @@
       </c>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>31.290164663996439</v>
+        <v>31.634178905206941</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="1"/>
-        <v>0.78225411659991095</v>
+        <v>0.7908544726301735</v>
       </c>
       <c r="F42" s="3">
         <v>2.27</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="2"/>
-        <v>31.33920704845815</v>
+        <v>31.648898678414099</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="3"/>
-        <v>0.78348017621145372</v>
+        <v>0.79122246696035248</v>
       </c>
       <c r="I42" s="3">
         <v>2.198</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="4"/>
-        <v>31.677434030937214</v>
+        <v>32.192902638762511</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="5"/>
-        <v>0.79193585077343032</v>
+        <v>0.80482256596906276</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
@@ -3814,33 +3814,33 @@
       </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>32.79337686567164</v>
+        <v>33.15391791044776</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="1"/>
-        <v>0.79983846013833271</v>
+        <v>0.80863214415726248</v>
       </c>
       <c r="F43" s="3">
         <v>2.0979999999999999</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="2"/>
-        <v>33.908484270734036</v>
+        <v>34.243565300285994</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="3"/>
-        <v>0.82703620172522041</v>
+        <v>0.83520890976307305</v>
       </c>
       <c r="I43" s="3">
         <v>2.101</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="4"/>
-        <v>33.139933365064252</v>
+        <v>33.679200380771064</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="5"/>
-        <v>0.80829105768449394</v>
+        <v>0.82144391172612352</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
@@ -3852,33 +3852,33 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>32.460295475530934</v>
+        <v>32.817174515235457</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="1"/>
-        <v>0.77286417798883178</v>
+        <v>0.78136129798179665</v>
       </c>
       <c r="F44" s="3">
         <v>2.0670000000000002</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="2"/>
-        <v>34.41702951136913</v>
+        <v>34.757135945815193</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="3"/>
-        <v>0.81945308360402691</v>
+        <v>0.82755085585274268</v>
       </c>
       <c r="I44" s="3">
         <v>2.0760000000000001</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="4"/>
-        <v>33.539017341040456</v>
+        <v>34.084778420038539</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="5"/>
-        <v>0.79854803192953461</v>
+        <v>0.8115423433342509</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
@@ -3890,33 +3890,33 @@
       </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>33.818662818662816</v>
+        <v>34.190476190476183</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="1"/>
-        <v>0.78648053066657708</v>
+        <v>0.79512735326688799</v>
       </c>
       <c r="F45" s="3">
         <v>2.0510000000000002</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="2"/>
-        <v>34.685519258898097</v>
+        <v>35.028278888347145</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="3"/>
-        <v>0.80663998276507198</v>
+        <v>0.81461113693830567</v>
       </c>
       <c r="I45" s="3">
         <v>2.0539999999999998</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="4"/>
-        <v>33.898247322297955</v>
+        <v>34.449853943524836</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="5"/>
-        <v>0.78833133307669667</v>
+        <v>0.80115939403546133</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
@@ -3928,33 +3928,33 @@
       </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>32.993430314406382</v>
+        <v>33.356170811825436</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="1"/>
-        <v>0.74985068896378138</v>
+        <v>0.75809479117785084</v>
       </c>
       <c r="F46" s="3">
         <v>1.9770000000000001</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="2"/>
-        <v>35.983813859382899</v>
+        <v>36.339403136064746</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>0.81781395134961132</v>
+        <v>0.82589552581965331</v>
       </c>
       <c r="I46" s="3">
         <v>2.0019999999999998</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="4"/>
-        <v>34.778721278721278</v>
+        <v>35.344655344655351</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="5"/>
-        <v>0.7904254836073018</v>
+        <v>0.80328762146943977</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
@@ -3966,33 +3966,33 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>34.097478176527645</v>
+        <v>34.472356935014545</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="1"/>
-        <v>0.75772173725616987</v>
+        <v>0.76605237633365653</v>
       </c>
       <c r="F47" s="3">
         <v>1.95</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="2"/>
-        <v>36.48205128205128</v>
+        <v>36.842564102564104</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>0.81071225071225073</v>
+        <v>0.81872364672364673</v>
       </c>
       <c r="I47" s="3">
         <v>1.96</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="4"/>
-        <v>35.523979591836735</v>
+        <v>36.102040816326536</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="5"/>
-        <v>0.78942176870748304</v>
+        <v>0.80226757369614521</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
@@ -4004,33 +4004,33 @@
       </c>
       <c r="D48" s="3">
         <f t="shared" si="0"/>
-        <v>33.818662818662816</v>
+        <v>34.190476190476183</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="1"/>
-        <v>0.73518832214484386</v>
+        <v>0.74327122153209091</v>
       </c>
       <c r="F48" s="3">
         <v>1.9690000000000001</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="2"/>
-        <v>36.130015236160489</v>
+        <v>36.487049263585575</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="3"/>
-        <v>0.78543511382957587</v>
+        <v>0.79319672312142553</v>
       </c>
       <c r="I48" s="3">
         <v>1.946</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="4"/>
-        <v>35.779547790339159</v>
+        <v>36.361767728674209</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="5"/>
-        <v>0.7778162563117208</v>
+        <v>0.7904732114929176</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
@@ -4042,33 +4042,33 @@
       </c>
       <c r="D49" s="3">
         <f t="shared" si="0"/>
-        <v>32.520351526364479</v>
+        <v>32.877890841813134</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="1"/>
-        <v>0.69192237290137193</v>
+        <v>0.69952959237900281</v>
       </c>
       <c r="F49" s="3">
         <v>1.929</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="2"/>
-        <v>36.879212026956971</v>
+        <v>37.243649559357181</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="3"/>
-        <v>0.78466408567993551</v>
+        <v>0.79241807573100387</v>
       </c>
       <c r="I49" s="3">
         <v>2.0129999999999999</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="4"/>
-        <v>34.588673621460508</v>
+        <v>35.151515151515156</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="5"/>
-        <v>0.7359292259885214</v>
+        <v>0.74790457769181184</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
@@ -4080,33 +4080,33 @@
       </c>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>29.578880942364325</v>
+        <v>29.904080774084981</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="1"/>
-        <v>0.61622668629925681</v>
+        <v>0.62300168279343715</v>
       </c>
       <c r="F50" s="3">
         <v>1.944</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="2"/>
-        <v>36.594650205761319</v>
+        <v>36.956275720164612</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="3"/>
-        <v>0.76238854595336081</v>
+        <v>0.76992241083676272</v>
       </c>
       <c r="I50" s="3">
         <v>1.9419999999999999</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="4"/>
-        <v>35.853244078269825</v>
+        <v>36.436663233779612</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="5"/>
-        <v>0.74694258496395471</v>
+        <v>0.75909715070374195</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>28.569280780170661</v>
+        <v>28.883380739536772</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="2"/>
-        <v>36.783867631851088</v>
+        <v>37.147362978283354</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="J51" s="3">
         <f t="shared" si="4"/>
-        <v>36.301876955161624</v>
+        <v>36.892596454640255</v>
       </c>
       <c r="K51" s="3"/>
     </row>
